--- a/biology/Biologie cellulaire et moléculaire/Edgardo_D._Carosella/Edgardo_D._Carosella.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Edgardo_D._Carosella/Edgardo_D._Carosella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgardo Delfino Carosella né à Buenos Aires le 9 avril 1951, est un immunologiste français.
-École Normale Supérieure de Professeurs Mariano Acosta (Argentine, 1968). MD, Faculté de médecine de l’Université du Salvador s.j. (Argentine, 1975). Directeur de recherche au Commissariat à l’Énergie Atomique  et Chef du service de recherche en hémato-immunologie à l'hôpital Saint-Louis depuis 1995. Fondateur et Vice-président de la Fondation Jean Dausset-CEPH (Centre d’Étude du Polymorphisme Humain)[1] depuis 1997.
+École Normale Supérieure de Professeurs Mariano Acosta (Argentine, 1968). MD, Faculté de médecine de l’Université du Salvador s.j. (Argentine, 1975). Directeur de recherche au Commissariat à l’Énergie Atomique  et Chef du service de recherche en hémato-immunologie à l'hôpital Saint-Louis depuis 1995. Fondateur et Vice-président de la Fondation Jean Dausset-CEPH (Centre d’Étude du Polymorphisme Humain) depuis 1997.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgardo D. Carosella commence sa carrière scientifique en 1972 à l’Institut de Recherche Hématologique de l’Académie Nationale de Médecine à Buenos-Aires (Argentine). Sa recherche porte alors sur la régulation des fonctions lymphocytaires chez les malades atteints de lymphome, et sur l’immunité cellulaire chez les malades atteints de lèpre. Il établit pour la première fois une corrélation parfaite entre l’activité lymphocytaire T et les différentes formes de lèpre (lépromateuse indéterminée et tuberculoïde), prouvant son rôle fondamental dans la lèpre indifférenciée et son évolution vers la forme lépromateuse ou tuberculoïde. 
 En outre, après inoculation à des tatous du bacille de Hansen provenant d’un malade, il décrit pour la première fois, en même temps qu’une équipe canadienne (E. Storrs et al.), la reproduction du léprome chez les tatous (jusqu’alors cette inoculation, chez tous les animaux testés, ne reproduisait pas la maladie). Il a été ainsi le premier à étudier le système immunologique humoral et cellulaire chez trois espèces différentes des tatous, très primitives dans l'échelle zoologique (Chaetophractus villosus, Dasypus hybridus, Septecintus et Zaedus pichei), ce qui lui permit de standardiser et de préconiser l'espèce la plus appropriée à l'obtention des lépromes chez l'animal (Septecintus et Zaedus). Depuis, cette espèce a été à la fois utilisée comme modèle de reproduction de la maladie et pour l'obtention des lépromes.
 En 1974, par l’étude immunologique des malades atteints de lymphomes hodgkiniens et non hodgkiniens, E.D. Carosella montre chez ces patients l’absence d’une réaction cutanée à la tuberculine associée à une diminution du nombre des lymphocytes T et leur réactivité vis-à-vis du même antigène. Les taux les plus bas correspondaient aux types cytologiques des pronostics les plus sévères de la maladie de Hodgkin. Ils étaient aussi corrélés à l'état clinique des patients et au degré de dissémination de la maladie.
-En 1976, invité par le Pr Jean Bernard, il rejoint l’équipe du Pr Jean Dausset à l’Institut universitaire d’hématologie (IUH)[2] à l’hôpital Saint-Louis. Il s’applique à l’étude des antigènes HLA (HLA (antigène)), à leur rôle dans l'immunité cellulaire et dans la transplantation allogénique. L’objectif est de mettre en évidence le contrôle génétique de la réponse proliférative allogénique, l’existence de lymphocytes suppresseurs et cytotoxiques, et les facteurs médiant cette activité. Jusqu’alors, le contrôle génétique de l’alloprolifération avait été attribué aux antigènes HLA-A, -B, -C du complexe HLA.
+En 1976, invité par le Pr Jean Bernard, il rejoint l’équipe du Pr Jean Dausset à l’Institut universitaire d’hématologie (IUH) à l’hôpital Saint-Louis. Il s’applique à l’étude des antigènes HLA (HLA (antigène)), à leur rôle dans l'immunité cellulaire et dans la transplantation allogénique. L’objectif est de mettre en évidence le contrôle génétique de la réponse proliférative allogénique, l’existence de lymphocytes suppresseurs et cytotoxiques, et les facteurs médiant cette activité. Jusqu’alors, le contrôle génétique de l’alloprolifération avait été attribué aux antigènes HLA-A, -B, -C du complexe HLA.
 Mais l’étude réalisée par E.D. Carosella sur des familles informatives modifia ce concept et démontra l’existence d’un système autonome proche de la série HLA-B situé à 1 % de recombinaison de celle-ci et responsable de la prolifération allogénique. Ce système s’appellera par la suite région HLA-D, ce qui laisse présager l’existence de plusieurs locus. Pendant la réponse allogénique, il observa également la production de cellules mémoires immunes capables de proliférer rapidement en cas de re-stimulation par des cellules ayant servi à l'immunisation primaire, celle-ci étant contrôlée par un nouveau type d’antigènes appelés HLA-DR. C’est aussi durant cette réaction qu’il constata la différenciation d’une population lymphocytaire T suppressive capable d’inhiber la réponse allogénique. Ces cellules étaient capables de sécréter un facteur suppresseur qui inhibait cette réponse de façon non spécifique. Il démontra plus tard que cette inhibition était due à la molécule HLA-G.
 Dans la continuité du service du Pr. Jean Dausset, le Service de Recherches en Hémato-Immunologie est créé et dirigé par le Docteur Edgardo D. Carosella. Celui-ci avec son équipe décrivit en 1992  pour la première fois la molécule d’immunotolérance HLA-G et son rôle essentiel dans la tolérance foeto maternelle mais aussi dans le rejet des greffes et la progression des cellules cancéreuses. Il est le checkpoint majeur de la réponse immune anti-tumorale.
 Les objectifs scientifiques du SRHI portent d’une part, sur l’utilisation de la molécule HLA-G dans le traitement du rejet du greffon ; les études menées dans ce sens sur les cellules souches mésenchymateuses (exprimant HLA-G) chez les malades, montrèrent les propriétés tolérogènes adjuvantes en médecine régénérative (cutanée, osseuse…).
@@ -552,12 +566,14 @@
           <t>Distinctions et prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Professeur honoraire de l'Universidad del Salvador, Buenos Aires (Argentine), 1997
 Hôte officiel de la Autoridad Regulatoria Nuclear (Argentine), 1999
 Membre correspondant élu de l’Académie des sciences de l’Institut de France, 1999
-Membre élu de la European Academy of Sciences[3], Bruxelles (Belgique), 2002
+Membre élu de la European Academy of Sciences, Bruxelles (Belgique), 2002
 International Scientist of the Year, International Biographical Centre, Cambridge (RU), 2003
 Docteur Honoris Causa de l’Université du Salvador (Argentine), 2006
 Membre étranger élu de la Real Academia de Medicina y Cirugia de Murcia, Instituto de España, 2014
@@ -598,9 +614,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur (2023)[4], Officier (2016)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (2023), Officier (2016)
  Commandeur de l'ordre national du Mérite (2010)
 Commandeur des Palmes académiques (2014)</t>
         </is>
@@ -630,7 +648,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pour quoi vous levez-vous le matin ?, Belin science, 2022.
 A travers les âges de la vie, Editions Hermann, Paris, Septembre 2022.
